--- a/processed_data/transition_data_scraped.xlsx
+++ b/processed_data/transition_data_scraped.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D561"/>
+  <dimension ref="A1:E561"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -378,6 +378,11 @@
           <t>source_of_funding</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>idstring</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -400,6 +405,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Courtney Chapin, Team LeadThe Better Angels SocietyArts and Humanities</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -422,6 +432,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Lauren Dugas GloverDistrict of Columbia, Commission on the Arts and HumanitiesArts and Humanities</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -444,6 +459,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Kei KoizumiThe American Association for the Advancement of ScienceArts and Humanities</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -466,6 +486,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Bob LynchAmericans for the ArtsArts and Humanities</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -488,6 +513,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Mahlet MesfinUniversity of PennsylvaniaArts and Humanities</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -510,6 +540,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Juan SepúlvedaTrinity UniversityArts and Humanities</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -532,6 +567,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>David SkortonAssociation of American Medical CollegesArts and Humanities</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -554,6 +594,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Leandra English, Team LeadState of New York, Department of Financial ServicesConsumer Financial Protection Bureau</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -576,6 +621,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Manny AlvarezCalifornia Department of Financial Protection &amp; InnovationConsumer Financial Protection Bureau</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -598,6 +648,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Bill BynumHope Enterprise CorporationConsumer Financial Protection Bureau</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -620,6 +675,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>David MayorgaOffice of the Attorney General for the District of ColumbiaConsumer Financial Protection Bureau</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -642,6 +702,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Josh NassarThe United Automobile, Aerospace and Agricultural Implement WorkersConsumer Financial Protection Bureau</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -664,6 +729,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Brian ShearerJustice Catalyst Law, Inc.Consumer Financial Protection Bureau</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -686,6 +756,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Diane ThompsonSelf-employedConsumer Financial Protection Bureau</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -708,6 +783,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Ashwin VasanSophant ConsultingConsumer Financial Protection Bureau</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -730,6 +810,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Martha Gimbel, Team LeadSchmidt FuturesCouncil of Economic Advisers</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -752,6 +837,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Damon JonesUniversity of Chicago, Harris School of Public Policy StudiesCouncil of Economic Advisers</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -774,6 +864,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Jay ShambaughGeorge Washington UniversityCouncil of Economic Advisers</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -796,6 +891,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Cecilia Martinez, Team LeadCenter for Earth, Energy and DemocracyCouncil on Environmental Quality</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -818,6 +918,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Nikki BuffaLatham &amp; Watkins, LLPCouncil on Environmental Quality</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -840,6 +945,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Horst GreczmielThe Clark Group, LLCCouncil on Environmental Quality</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -862,6 +972,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Shara MohtadiBloomberg PhilanthropiesCouncil on Environmental Quality</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -884,6 +999,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Geovette Washington, Team LeadUniversity of PittsburghDepartment of Commerce</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -906,6 +1026,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Joshua BermanClifford Chance US, LLPDepartment of Commerce</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -928,6 +1053,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Colleen ChienSanta Clara UniversityDepartment of Commerce</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -950,6 +1080,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Tene DolphinGreater Washington Black Chamber of CommerceDepartment of Commerce</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -972,6 +1107,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Michelle DuBoisValues PartnershipsDepartment of Commerce</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -994,6 +1134,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Anna GomezWiley Rein, LLPDepartment of Commerce</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1016,6 +1161,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Ellen Hughes-CromwickThird WayDepartment of Commerce</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1038,6 +1188,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Karen HyunNational Audubon SocietyDepartment of Commerce</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1060,6 +1215,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Charmion KinderCNKinder, Inc.Department of Commerce</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1082,6 +1242,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Paul A. LaudicinaGlobal Counsel, LLCDepartment of Commerce</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1104,6 +1269,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Nancy PotokSelf-employedDepartment of Commerce</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1126,6 +1296,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Pravina RaghavanEmpire State DevelopmentDepartment of Commerce</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1148,6 +1323,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Denice RossNational Conference on CitizenshipDepartment of Commerce</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1170,6 +1350,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Kris SarriNational Marine Sanctuary FoundationDepartment of Commerce</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1192,6 +1377,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Mary SaundersAmerican National Standards InstituteDepartment of Commerce</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1214,6 +1404,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Patrick SchaeferState of New MexicoDepartment of Commerce</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1236,6 +1431,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Kathryn SullivanNational Oceanic and Atmospheric Administration (Retired)Department of Commerce</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1258,6 +1458,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Kenny ThompsonPepsiCoDepartment of Commerce</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1280,6 +1485,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Atman TrivediHills &amp; CompanyDepartment of Commerce</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1302,6 +1512,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Todd TuckerThe Roosevelt InstituteDepartment of Commerce</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1324,6 +1539,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Arun VenkataramanVisa, Inc.Department of Commerce</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1346,6 +1566,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Sandra WhitehouseOcean WonksDepartment of Commerce</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1368,6 +1593,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Kathryn de WitThe Pew Charitable TrustsDepartment of Commerce</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1390,6 +1620,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Kath Hicks, Team LeadCenter for Strategic and International StudiesDepartment of Defense</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1412,6 +1647,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Susanna BlumeCenter for a New American SecurityDepartment of Defense</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1434,6 +1674,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Sharon BurkeNew AmericaDepartment of Defense</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1456,6 +1701,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Lisa CoeOtherSide Consulting, LLCDepartment of Defense</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1478,6 +1728,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Melissa DaltonCenter for Strategic and International StudiesDepartment of Defense</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1500,6 +1755,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>John EstradaDepartment of State (Retired)Department of Defense</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1522,6 +1782,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Victor GarciaRebellion DefenseDepartment of Defense</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1544,6 +1809,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Karen GibsonSelf-employedDepartment of Defense</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1566,6 +1836,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Michelle HowardGeorge Washington University, The Elliott School of International AffairsDepartment of Defense</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1588,6 +1863,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Andrew HunterCenter for Strategic and International StudiesDepartment of Defense</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -1610,6 +1890,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Bhavya LalIDA Science and Technology Policy InstituteDepartment of Defense</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1632,6 +1917,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Mike McCordThe Stennis Center for Public ServiceDepartment of Defense</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -1654,6 +1944,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Farooq MithaImbue Group, Inc.Department of Defense</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -1676,6 +1971,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Frank MoraFlorida International UniversityDepartment of Defense</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -1698,6 +1998,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Michael NegronState of IllinoisDepartment of Defense</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -1720,6 +2025,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Stacie PettyjohnRAND CorporationDepartment of Defense</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -1742,6 +2052,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Ely RatnerCenter for a New American SecurityDepartment of Defense</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -1764,6 +2079,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Deborah RosenblumNuclear Threat InitiativeDepartment of Defense</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -1786,6 +2106,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Lisa SawyerJPMorgan Chase &amp; CoDepartment of Defense</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -1808,6 +2133,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Shawn SkellyCACI International, Inc.Department of Defense</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -1830,6 +2160,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Alissa StarzakCloudflare, Inc.Department of Defense</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -1852,6 +2187,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Terri TanielianRAND CorporationDepartment of Defense</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -1874,6 +2214,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Veronica ValdezThe Port of SeattleDepartment of Defense</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -1896,6 +2241,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Debra WadaSenshi Ame Advisors, LLCDepartment of Defense</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -1918,6 +2268,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Stephen WelbyThe Institute of Electronic and Electrical Engineers, Inc.Department of Defense</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -1940,6 +2295,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Christine WormuthRAND CorporationDepartment of Defense</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -1962,6 +2322,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Linda Darling-Hammond, Team LeadLearning Policy InstituteDepartment of Education</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -1984,6 +2349,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Ary AmerikanerThe Education TrustDepartment of Education</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -2006,6 +2376,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Beth AntunezAmerican Federation of TeachersDepartment of Education</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -2028,6 +2403,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Jim BrownUnited States Senate, Office of  Senator Robert P. Casey, Jr. (Retired)Department of Education</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -2050,6 +2430,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Ruthanne BuckSelf-employedDepartment of Education</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -2072,6 +2457,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Norma CantuUniversity of Texas at Austin, School of LawDepartment of Education</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -2094,6 +2484,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Jessica CardichonLearning Policy InstituteDepartment of Education</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -2116,6 +2511,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Keia ColeMassMutualDepartment of Education</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -2138,6 +2538,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Lindsay DworkinAlliance for Excellent EducationDepartment of Education</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -2160,6 +2565,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Donna Harris-AikensNational Education AssociationDepartment of Education</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -2182,6 +2592,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Kristina IshmaelOpen Education GlobalDepartment of Education</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -2204,6 +2619,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Bob KimJohn Jay College of Criminal JusticeDepartment of Education</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -2226,6 +2646,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>James KvaalThe Institute for College Access &amp; SuccessDepartment of Education</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -2248,6 +2673,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Peggy McLeodUnidosUSDepartment of Education</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -2270,6 +2700,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Ben MillerCenter for American ProgressDepartment of Education</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -2292,6 +2727,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Paul MonteiroHoward UniversityDepartment of Education</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -2314,6 +2754,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Pedro RiveraThaddeus Stevens College of TechnologyDepartment of Education</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -2336,6 +2781,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Roberto RodriguezTeach Plus, IncDepartment of Education</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -2358,6 +2808,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Shital ShahAmerican Federation of TeachersDepartment of Education</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -2380,6 +2835,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Marla Ucelli-KashyapAmerican Federation of TeachersDepartment of Education</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -2402,6 +2862,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Emma VadehraThe Century FoundationDepartment of Education</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -2424,6 +2889,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Michael YudinThe Raben Group, LLCDepartment of Education</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -2446,6 +2916,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Arun Majumdar, Team LeadStanford UniversityDepartment of Energy</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -2468,6 +2943,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Dan ArvizuNew Mexico State UniversityDepartment of Energy</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -2490,6 +2970,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Rhonda CarterMarguerite Casey FoundationDepartment of Energy</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -2512,6 +2997,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Madelyn CreedonGreen Marble GroupDepartment of Energy</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -2534,6 +3024,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Noah DeichCarbon180Department of Energy</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -2556,6 +3051,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Kerry DugganSelf-employedDepartment of Energy</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -2578,6 +3078,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Jonathan ElkindColumbia UniversityDepartment of Energy</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -2600,6 +3105,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Bryan GarciaConnecticut Green BankDepartment of Energy</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -2622,6 +3132,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Kathleen HoganSelf-employedDepartment of Energy</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -2644,6 +3159,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>Hannah LeeState of California, Office of Digital InnovationDepartment of Energy</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -2666,6 +3186,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>John MacWilliamsColumbia UniversityDepartment of Energy</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -2688,6 +3213,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Brad MarkellAFL-CIODepartment of Energy</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -2710,6 +3240,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Trisha MillerGates VenturesDepartment of Energy</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -2732,6 +3267,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>Rod O’ConnorThe ROC GroupDepartment of Energy</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -2754,6 +3294,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>Adrianna QuinteroEnergy FoundationDepartment of Energy</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -2776,6 +3321,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>R RameshUniversity of California, BerkeleyDepartment of Energy</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -2798,6 +3348,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>Roque SanchezHigh Water Mark, LLCDepartment of Energy</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -2820,6 +3375,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>Rachel SlaybaughUniversity of California, BerkeleyDepartment of Energy</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -2842,6 +3402,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>Dave TurkInternational Energy AgencyDepartment of Energy</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -2864,6 +3429,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>Rama ZakariaEnvironmental Defense FundDepartment of Energy</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -2886,6 +3456,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>Chiquita Brooks-LaSure, Team LeadManatt, Phelps and Phillips, LLPDepartment of Health and Human Services</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -2908,6 +3483,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>Robert Gordon, Team LeadState of Michigan, Department of Health &amp; Human ServicesDepartment of Health and Human Services</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -2930,6 +3510,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>Kathryn AlvarezThe Aspen InstituteDepartment of Health and Human Services</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -2952,6 +3537,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>John AuerbachTrust for America’s HealthDepartment of Health and Human Services</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -2974,6 +3564,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>Lisa BarclayBoies Schiller Flexner, LLPDepartment of Health and Human Services</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -2996,6 +3591,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>Jonathan BlumHealth Management AssociatesDepartment of Health and Human Services</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -3018,6 +3618,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>Lu BorioIn-Q-TelDepartment of Health and Human Services</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -3040,6 +3645,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>Perrie BriskinUniversity of California, BerkeleyDepartment of Health and Human Services</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -3062,6 +3672,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>Danielle CarnivalI AM ALSDepartment of Health and Human Services</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -3084,6 +3699,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>Ken ChoeHogan Lovells, LLPDepartment of Health and Human Services</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -3106,6 +3726,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>Henry ClaypoolSelf-employedDepartment of Health and Human Services</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -3128,6 +3753,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>Jose CorderoUniversity of GeorgiaDepartment of Health and Human Services</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -3150,6 +3780,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>Sarah DespresPew Charitable TrustsDepartment of Health and Human Services</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -3172,6 +3807,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>Eliot FishmanFamilies USADepartment of Health and Human Services</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -3194,6 +3834,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>Cristal GaryAMITA HealthDepartment of Health and Human Services</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -3216,6 +3861,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>Mina HsiangDevoted HealthDepartment of Health and Human Services</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -3238,6 +3888,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>Tom InglesbyJohns Hopkins UniversityDepartment of Health and Human Services</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -3260,6 +3915,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>David C. KaslowPATHDepartment of Health and Human Services</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -3282,6 +3942,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>Natalie KatesAlloyDepartment of Health and Human Services</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -3304,6 +3969,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>Jeremy KonyndykCenter for Global DevelopmentDepartment of Health and Human Services</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -3326,6 +3996,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>Anna MartinezState of New Jersey, Department of Children and Families, Division on WomenDepartment of Health and Human Services</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -3348,6 +4023,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>Sarah NolanService Employees International UnionDepartment of Health and Human Services</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -3370,6 +4050,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>Yngvild OlsenInstitutes for Behavior Resources, Inc.Department of Health and Human Services</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -3392,6 +4077,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>Edwin ParkGeorgetown UniversityDepartment of Health and Human Services</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -3414,6 +4104,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>Sharon ParrottCenter on Budget and Policy PrioritiesDepartment of Health and Human Services</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -3436,6 +4131,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>Chuck PeckGuidehouse, Inc.Department of Health and Human Services</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -3458,6 +4158,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>Anne ReidCo-EqualDepartment of Health and Human Services</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -3480,6 +4185,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>Geoff RothSelf-employedDepartment of Health and Human Services</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -3502,6 +4212,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>Meena SeshamaniMedStar HealthDepartment of Health and Human Services</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -3524,6 +4239,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>Cyrus ShahparResolve to Save Lives, an initiative of Vital StrategiesDepartment of Health and Human Services</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -3546,6 +4266,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>Mary WakefieldUniversity of Texas at AustinDepartment of Health and Human Services</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -3568,6 +4293,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>Ur Jaddou, Team LeadAmerica’s VoiceDepartment of Homeland Security</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -3590,6 +4320,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>Amanda BaranSelf-employedDepartment of Homeland Security</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -3612,6 +4347,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>Michael CoenInnovative Emergency ManagementDepartment of Homeland Security</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -3634,6 +4374,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>John CohenArgonne National LaboratoryDepartment of Homeland Security</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -3656,6 +4401,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>Pam ColemanState of New MexicoDepartment of Homeland Security</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -3678,6 +4428,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>Caitlin DurkovichToffler Associates, Inc.Department of Homeland Security</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -3700,6 +4455,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>Nadia FirozviDemocracy FundDepartment of Homeland Security</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -3722,6 +4482,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>Andrea FloresAmerican Civil Liberties UnionDepartment of Homeland Security</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -3744,6 +4509,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>Craig FugateOne Concern, Inc.Department of Homeland Security</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -3766,6 +4536,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>Asha  M. GeorgeBipartisan Commission on BiodefenseDepartment of Homeland Security</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -3788,6 +4563,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>Jonathan MeyerSheppard Mullin Richter &amp; Hampton, LLPDepartment of Homeland Security</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -3810,6 +4590,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>Lori Moore-MerrellInternational Public Safety Data InstituteDepartment of Homeland Security</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -3832,6 +4617,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>Peter NeffengerSelf-employedDepartment of Homeland Security</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -3854,6 +4644,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>Blas Nuñez-NetoRAND CorporationDepartment of Homeland Security</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -3876,6 +4671,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>Kimberly O’ConnorThe Levy Group, Inc.Department of Homeland Security</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -3898,6 +4698,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>Esther OlavarriaSelf-employedDepartment of Homeland Security</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -3920,6 +4725,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>Lynn Parker DupreeCapital One Financial CorporationDepartment of Homeland Security</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -3942,6 +4752,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>Subhasri RamanathanDeloitte &amp; Touche, LLPDepartment of Homeland Security</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -3964,6 +4779,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>Paul RosenCrowell &amp; Moring, LLPDepartment of Homeland Security</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -3986,6 +4806,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>Samantha SilverbergMassachusetts Bay Transportation AuthorityDepartment of Homeland Security</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -4008,6 +4833,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>Robert SilversPaul Hastings, LLPDepartment of Homeland Security</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -4030,6 +4860,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>Nicole TisdaleAdvocacy Blueprints, LLCDepartment of Homeland Security</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -4052,6 +4887,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>Isabella UlloaUrban AllianceDepartment of Homeland Security</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -4074,6 +4914,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>Erika Poethig, Team LeadUrban InstituteDepartment of Housing and Urban Development</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -4096,6 +4941,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>Alejandro AvilésUnidosUSDepartment of Housing and Urban Development</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -4118,6 +4968,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>Peggy BaileyCenter on Budget and Policy PrioritiesDepartment of Housing and Urban Development</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -4140,6 +4995,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>Laurel BlatchfordBlue Meridian PartnersDepartment of Housing and Urban Development</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -4162,6 +5022,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>Adria CrutchfieldBaltimore Regional Housing PartnershipDepartment of Housing and Urban Development</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -4184,6 +5049,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>Julia GordonNational Community Stabilization TrustDepartment of Housing and Urban Development</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -4206,6 +5076,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>Solomon GreeneUrban InstituteDepartment of Housing and Urban Development</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -4228,6 +5103,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>Aras JizanCommunity SolutionsDepartment of Housing and Urban Development</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -4250,6 +5130,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>Monique King-ViehlandUrban InstituteDepartment of Housing and Urban Development</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -4272,6 +5157,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>Becky KoepnickState of New York, Homes and Community RenewalDepartment of Housing and Urban Development</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -4294,6 +5184,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>Gail Winifer LasterNational Credit Union Administration (Retired)Department of Housing and Urban Development</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -4316,6 +5211,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>Meaghan McCarthyHousing Partnership NetworkDepartment of Housing and Urban Development</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -4338,6 +5238,11 @@
           <t>Transition — PT Fund, Inc.</t>
         </is>
       </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>Gina MetrakasNew York University, Furman CenterDepartment of Housing and Urban Development</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -4360,6 +5265,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>Noel PoyoNational Association for Latino Community Asset BuildersDepartment of Housing and Urban Development</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -4382,6 +5292,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>Antonio RileySelf-employedDepartment of Housing and Urban Development</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -4404,6 +5319,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>Margaret SalazarState of Oregon Department of Housing and Community ServicesDepartment of Housing and Urban Development</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -4426,6 +5346,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>Eric SteinCenter for Community Self-HelpDepartment of Housing and Urban Development</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -4448,6 +5373,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>Karen TamleyAccess LivingDepartment of Housing and Urban Development</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -4470,6 +5400,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>Ben J. WinterCalifornia Community FoundationDepartment of Housing and Urban Development</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -4492,6 +5427,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>Christopher Schroeder, Team LeadDuke UniversityDepartment of Justice</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -4514,6 +5454,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>Roy AustinHarris, Wiltshire and Grannis, LLPDepartment of Justice</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -4536,6 +5481,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>Matt AxelrodLinklaters LLPDepartment of Justice</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -4558,6 +5508,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>Michael BosworthLatham &amp; Watkins, LLPDepartment of Justice</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -4580,6 +5535,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>Afua BruceDataKindDepartment of Justice</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -4602,6 +5562,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>James CadoganArnold Ventures, LLCDepartment of Justice</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -4624,6 +5589,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>Melanca ClarkHudson-Webber FoundationDepartment of Justice</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -4646,6 +5616,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>Danielle ConleyWilmerHale, LLCDepartment of Justice</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -4668,6 +5643,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>Raj DeMayer Brown, LLPDepartment of Justice</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -4690,6 +5670,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>Chai FeldblumMorgan, Lewis &amp; Bockius, LLPDepartment of Justice</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -4712,6 +5697,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>Shirlethia FranklinJones DayDepartment of Justice</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -4734,6 +5724,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>Laurence GoldTrister, Ross, Schadler &amp; Gold, PLLCDepartment of Justice</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -4756,6 +5751,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>Kathleen HartnettCooley LLPDepartment of Justice</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -4778,6 +5778,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>Rocio Inclan-RodriguezThe National Education AssociationDepartment of Justice</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -4800,6 +5805,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>Dawn JohnsenIndiana University Maurer School of LawDepartment of Justice</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -4822,6 +5832,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>Pam KarlanStanford UniversityDepartment of Justice</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -4844,6 +5859,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>Gene KimmelmanPublic KnowledgeDepartment of Justice</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -4866,6 +5886,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>Richard LazarusHarvard Law SchoolDepartment of Justice</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -4888,6 +5913,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>Martin LedermanGeorgetown University Law CenterDepartment of Justice</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -4910,6 +5940,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>Neil MacBrideDavis Polk &amp; Wardwell LLPDepartment of Justice</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -4932,6 +5967,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>Alexander MacklerDelaware Department of JusticeDepartment of Justice</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -4954,6 +5994,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>Teresa MasonBronx District Attorney’s OfficeDepartment of Justice</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -4976,6 +6021,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>Barb McQuadeUniversity of Michigan Law SchoolDepartment of Justice</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -4998,6 +6048,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>José MoralesFair Fight ActionDepartment of Justice</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -5020,6 +6075,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>Brian Nelson2028 Summer OlympicsDepartment of Justice</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -5042,6 +6102,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>Cristina RodriguezYale Law SchoolDepartment of Justice</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -5064,6 +6129,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>Kris RoseHealing Justice ProjectDepartment of Justice</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -5086,6 +6156,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>Lynn RosenthalThe Center for Family Safety and HealingDepartment of Justice</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -5108,6 +6183,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>Paul TiaoHunton Andrews Kurth, LLPDepartment of Justice</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -5130,6 +6210,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>Chris Lu, Team LeadFiscalNoteDepartment of Labor</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -5152,6 +6237,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>Jennifer AbruzzoCommunications Workers of AmericaDepartment of Labor</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -5174,6 +6264,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>Mary BeechNortheastern UniversityDepartment of Labor</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -5191,6 +6286,11 @@
           <t>University of Maryland, College Park</t>
         </is>
       </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>Patricia BoryUniversity of Maryland, College ParkDepartment of Labor</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -5213,6 +6313,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>Dora ChenService Employees International UnionDepartment of Labor</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -5235,6 +6340,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>Jessica ChuAmalgamated Transit Union InternationalDepartment of Labor</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -5257,6 +6367,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>Michele EvermoreNational Employment Law ProjectDepartment of Labor</t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -5279,6 +6394,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>Jocelyn FryeCenter for American ProgressDepartment of Labor</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -5301,6 +6421,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>Tanya GoldmanCenter for Law and Social PolicyDepartment of Labor</t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -5323,6 +6448,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>Viv GraubardNew AmericaDepartment of Labor</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -5345,6 +6475,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>Deborah GreenfieldSelf-employedDepartment of Labor</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -5367,6 +6502,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>Seth HarrisSelf-employedDepartment of Labor</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -5389,6 +6529,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>Micheal HazardUnited AssociationDepartment of Labor</t>
+        </is>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -5411,6 +6556,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>Nadia Marin-MolinaNational Day Laborer Organizing Network (NDLON)Department of Labor</t>
+        </is>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -5433,6 +6583,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>Patricia MoscosoState of CaliforniaDepartment of Labor</t>
+        </is>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -5455,6 +6610,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>Seema NandaSelf-employedDepartment of Labor</t>
+        </is>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -5477,6 +6637,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>Raj NayakSelf-employedDepartment of Labor</t>
+        </is>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -5499,6 +6664,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>Shaun O’BrienAmerican Federation of State, County and Municipal EmployeesDepartment of Labor</t>
+        </is>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -5521,6 +6691,11 @@
           <t>Transition — PT Fund, Inc.</t>
         </is>
       </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>Josh OrtonUnited States Senate, Office of Senator Bernie SandersDepartment of Labor</t>
+        </is>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -5543,6 +6718,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>Doug ParkerState of California, Department of Industrial RelationsDepartment of Labor</t>
+        </is>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -5565,6 +6745,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>Lynn RhinehartSelf-employedDepartment of Labor</t>
+        </is>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -5587,6 +6772,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>Ann RosenthalSelf-employedDepartment of Labor</t>
+        </is>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -5609,6 +6799,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>Robin RungeThe Solidarity CenterDepartment of Labor</t>
+        </is>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -5631,6 +6826,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>Patricia SmithNational Employment Law ProjectDepartment of Labor</t>
+        </is>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -5653,6 +6853,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>Jenny YangUrban InstituteDepartment of Labor</t>
+        </is>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -5675,6 +6880,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>Linda Thomas-Greenfield, Team LeadAlbright Stonebridge GroupDepartment of State</t>
+        </is>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -5697,6 +6907,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>Hady AmrBrookings InstitutionDepartment of State</t>
+        </is>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -5719,6 +6934,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>Susan BiniazUnited Nations FoundationDepartment of State</t>
+        </is>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -5741,6 +6961,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>Oni BlairLINK HoustonDepartment of State</t>
+        </is>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -5763,6 +6988,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>Derek CholletThe German Marshall Fund of the United StatesDepartment of State</t>
+        </is>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -5785,6 +7015,11 @@
           <t>Transition — PT Fund, Inc.</t>
         </is>
       </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>Frances ColonSelf-employedDepartment of State</t>
+        </is>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -5807,6 +7042,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>Bathsheba CrockerCAREDepartment of State</t>
+        </is>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -5829,6 +7069,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>Sarah CrossOpen Society FoundationsDepartment of State</t>
+        </is>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -5851,6 +7096,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>Michael GuestSelf-employedDepartment of State</t>
+        </is>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -5873,6 +7123,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>Sumona GuhaAlbright Stonebridge GroupDepartment of State</t>
+        </is>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -5895,6 +7150,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>Peter HarrellSelf-employedDepartment of State</t>
+        </is>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -5917,6 +7177,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>Owen HerrnstadtInternational Association of Machinists and Aerospace WorkersDepartment of State</t>
+        </is>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -5939,6 +7204,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>Roberta JacobsonAlbright Stonebridge GroupDepartment of State</t>
+        </is>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -5961,6 +7231,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>Bonnie JenkinsWomen of Color Advancing Peace and SecurityDepartment of State</t>
+        </is>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -5983,6 +7258,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>Alexandra KahanBoston Consulting GroupDepartment of State</t>
+        </is>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -6005,6 +7285,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>Jeremy KonyndykCenter for Global DevelopmentDepartment of State</t>
+        </is>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -6027,6 +7312,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>Ellison LaskowskiThe German Marshall Fund of the United StatesDepartment of State</t>
+        </is>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -6049,6 +7339,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>Allison LombardoDeloitte Consulting LLCDepartment of State</t>
+        </is>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -6071,6 +7366,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>Raphael MajmaAlloyDepartment of State</t>
+        </is>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -6093,6 +7393,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>Nancy McEldowneyGeorgetown UniversityDepartment of State</t>
+        </is>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -6115,6 +7420,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>Amber McIntyreHWC, Inc.Department of State</t>
+        </is>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -6137,6 +7447,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>Emily MendralaCenter for Democracy in the AmericasDepartment of State</t>
+        </is>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -6159,6 +7474,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>Jane RheeThe Estee Lauder CompaniesDepartment of State</t>
+        </is>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -6181,6 +7501,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>Fouad SaadSelf-employedDepartment of State</t>
+        </is>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -6203,6 +7528,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>Gentry SmithSelf-employedDepartment of State</t>
+        </is>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -6225,6 +7555,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>Dana StroulThe Washington Institute for Near East PolicyDepartment of State</t>
+        </is>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -6247,6 +7582,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>Tom SullivanAmazon.com, Inc.Department of State</t>
+        </is>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -6269,6 +7609,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>Puneet TalwarSelf-employedDepartment of State</t>
+        </is>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -6291,6 +7636,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>Margaret TaylorBrookings InstitutionDepartment of State</t>
+        </is>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -6313,6 +7663,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>Ramin TolouiStanford UniversityDepartment of State</t>
+        </is>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -6335,6 +7690,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>Kevin Washburn, Team LeadUniversity of IowaDepartment of the Interior</t>
+        </is>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -6357,6 +7717,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>Bob AndersonHarvard Law SchoolDepartment of the Interior</t>
+        </is>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -6379,6 +7744,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>Bret BirdsongUniversity of Nevada, Las Vegas, Boyd School of LawDepartment of the Interior</t>
+        </is>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -6401,6 +7771,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>Shannon EstenozThe Everglades FoundationDepartment of the Interior</t>
+        </is>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -6423,6 +7798,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>Chris GoransonCarnegie Mellon University, The Heinz College of Information Systems and Public PolicyDepartment of the Interior</t>
+        </is>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -6445,6 +7825,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>Janie HippNative American Agriculture FundDepartment of the Interior</t>
+        </is>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -6467,6 +7852,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>Kate KellyCenter for American ProgressDepartment of the Interior</t>
+        </is>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -6489,6 +7879,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>Elizabeth KleinNew York University, School of Law, State Energy &amp; Environmental Impact CenterDepartment of the Interior</t>
+        </is>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -6511,6 +7906,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>Amanda LeiterAmerican University, Washington College of LawDepartment of the Interior</t>
+        </is>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -6533,6 +7933,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>Molly McUsicWyss FoundationDepartment of the Interior</t>
+        </is>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -6555,6 +7960,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>Maggie ThomasEvergreen ActionDepartment of the Interior</t>
+        </is>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -6577,6 +7987,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>Tanya TrujilloColorado River Sustainability CampaignDepartment of the Interior</t>
+        </is>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -6599,6 +8014,11 @@
           <t>Transition — PT Fund, Inc.</t>
         </is>
       </c>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>Don Graves, Team LeadKeyBankDepartment of the Treasury</t>
+        </is>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -6621,6 +8041,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>Mehrsa BaradaranUniversity of California, Irvine School of LawDepartment of the Treasury</t>
+        </is>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -6643,6 +8068,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>Michael BarrUniversity of Michigan, Gerald R. Ford School of Public PolicyDepartment of the Treasury</t>
+        </is>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -6665,6 +8095,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>Lily BatchelderNew York University, School of LawDepartment of the Treasury</t>
+        </is>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -6687,6 +8122,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E288" t="inlineStr">
+        <is>
+          <t>John BentivoglioSkadden, Arps, Slate, Meagher &amp; Flom LLPDepartment of the Treasury</t>
+        </is>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -6709,6 +8149,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>Rakim BrooksAmerican Civil Liberties UnionDepartment of the Treasury</t>
+        </is>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -6731,6 +8176,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>Chris BrummerGeorgetown UniversityDepartment of the Treasury</t>
+        </is>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -6753,6 +8203,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>Liyan David ChangDevoted HealthDepartment of the Treasury</t>
+        </is>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -6775,6 +8230,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>Heidi Crebo-RedikerInternational Capital Strategies, LLCDepartment of the Treasury</t>
+        </is>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -6797,6 +8257,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>Will FieldsSidewalk LabsDepartment of the Treasury</t>
+        </is>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -6819,6 +8284,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>Suzanna FritzbergBirmingham StrongDepartment of the Treasury</t>
+        </is>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -6841,6 +8311,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>Andy GreenCenter for American ProgressDepartment of the Treasury</t>
+        </is>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -6863,6 +8338,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>Nicole IsaacLinkedIn CorporationDepartment of the Treasury</t>
+        </is>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -6885,6 +8365,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>Simon JohnsonMassachusetts Institute of TechnologyDepartment of the Treasury</t>
+        </is>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -6907,6 +8392,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E298" t="inlineStr">
+        <is>
+          <t>Helen KanovskyMortgage Bankers AssociationDepartment of the Treasury</t>
+        </is>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -6929,6 +8419,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>Marisa LagoNew York City, Department of City PlanningDepartment of the Treasury</t>
+        </is>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -6951,6 +8446,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E300" t="inlineStr">
+        <is>
+          <t>Nancy LeeCenter for Global DevelopmentDepartment of the Treasury</t>
+        </is>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -6973,6 +8473,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t>Sarah MillerAmerican Economic Liberties ProjectDepartment of the Treasury</t>
+        </is>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -6995,6 +8500,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>Sophie RasemanBrightside Benefit, Inc.Department of the Treasury</t>
+        </is>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -7017,6 +8527,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>Rosie RiosRed River AssociatesDepartment of the Treasury</t>
+        </is>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -7039,6 +8554,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t>Buzz RobertsNational Association of Affordable Housing LendersDepartment of the Treasury</t>
+        </is>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -7061,6 +8581,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t>Elizabeth RosenbergCenter for a New American SecurityDepartment of the Treasury</t>
+        </is>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -7083,6 +8608,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t>Javier SaadeImpact Master HoldingsDepartment of the Treasury</t>
+        </is>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -7105,6 +8635,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t>Damon SilversAFL-CIODepartment of the Treasury</t>
+        </is>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -7127,6 +8662,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t>Betsey StevensonUniversity of MichiganDepartment of the Treasury</t>
+        </is>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -7149,6 +8689,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t>Jay WilliamsHartford Foundation for Public GivingDepartment of the Treasury</t>
+        </is>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -7171,6 +8716,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t>Charles YiArnold &amp; Porter Kaye Scholer, LLPDepartment of the Treasury</t>
+        </is>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -7193,6 +8743,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t>Jeff ZuttahOscar HealthDepartment of the Treasury</t>
+        </is>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -7215,6 +8770,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>Phillip Washington, Team LeadLos Angeles County Metropolitan Transportation AuthorityDepartment of Transportation</t>
+        </is>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -7237,6 +8797,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t>Dave BarnettUnited Association of Plumbers and Pipefitters of the US and CanadaDepartment of Transportation</t>
+        </is>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -7259,6 +8824,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>Austin BrownUniversity of California, DavisDepartment of Transportation</t>
+        </is>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -7281,6 +8851,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>David CameronInternational Brotherhood of TeamstersDepartment of Transportation</t>
+        </is>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -7303,6 +8878,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t>Florence ChenGenerateDepartment of Transportation</t>
+        </is>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -7325,6 +8905,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>Brendan DanaherTransport Workers Union of America, AFL-CIODepartment of Transportation</t>
+        </is>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -7347,6 +8932,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t>Paul KincaidThe Association of Former Members of CongressDepartment of Transportation</t>
+        </is>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -7369,6 +8959,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E319" t="inlineStr">
+        <is>
+          <t>Gabe KleinCityfiDepartment of Transportation</t>
+        </is>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -7391,6 +8986,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t>Jeff MarootianDistrict Department of TransportationDepartment of Transportation</t>
+        </is>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -7413,6 +9013,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t>Therese McMillanMetropolitan Transportation CommissionDepartment of Transportation</t>
+        </is>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -7435,6 +9040,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>Brad MimsConference of Minority Transportation OfficialsDepartment of Transportation</t>
+        </is>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -7457,6 +9067,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>Robert MolofskyAmalgamated Transit UnionDepartment of Transportation</t>
+        </is>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -7479,6 +9094,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>Patty MonahanCalifornia Energy CommissionDepartment of Transportation</t>
+        </is>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -7501,6 +9121,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>Toks OmishakinCalifornia Department of TransportationDepartment of Transportation</t>
+        </is>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -7523,6 +9148,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>Mario RodriguezIndianapolis Airport AuthorityDepartment of Transportation</t>
+        </is>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -7545,6 +9175,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>Mike RodriguezTexas A&amp;M University System (Retired)Department of Transportation</t>
+        </is>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -7567,6 +9202,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>Nairi Tashjian HourdajianFigmaDepartment of Transportation</t>
+        </is>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -7589,6 +9229,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>Polly TrottenbergNew York City, Department of TransportationDepartment of Transportation</t>
+        </is>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -7611,6 +9256,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>Vinn WhiteState of New JerseyDepartment of Transportation</t>
+        </is>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -7633,6 +9283,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>Meg Kabat, Team LeadAtlas Research, LLCDepartment of Veterans Affairs</t>
+        </is>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -7655,6 +9310,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>Phillip CarterTableau SoftwareDepartment of Veterans Affairs</t>
+        </is>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -7677,6 +9337,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>Maryanne DonaghySelf-employedDepartment of Veterans Affairs</t>
+        </is>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -7699,6 +9364,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>Shereef ElnahalUniversity Hospital Newark, NJDepartment of Veterans Affairs</t>
+        </is>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -7721,6 +9391,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>Mirah HorowitzLucky Dog Animal RescueDepartment of Veterans Affairs</t>
+        </is>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -7743,6 +9418,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t>Andrea IppolitoSimpliFedDepartment of Veterans Affairs</t>
+        </is>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -7765,6 +9445,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E337" t="inlineStr">
+        <is>
+          <t>Josh JacobsBooz Allen HamiltonDepartment of Veterans Affairs</t>
+        </is>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -7787,6 +9472,11 @@
           <t>Transition — PT Fund, Inc.</t>
         </is>
       </c>
+      <c r="E338" t="inlineStr">
+        <is>
+          <t>Carrie KagawaTruman Center for National Policy and Truman National Security ProjectDepartment of Veterans Affairs</t>
+        </is>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -7809,6 +9499,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E339" t="inlineStr">
+        <is>
+          <t>Jerry SH LeeEllison Institute, University of Southern CaliforniaDepartment of Veterans Affairs</t>
+        </is>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -7831,6 +9526,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E340" t="inlineStr">
+        <is>
+          <t>Heidi MarstonLos Angeles Homeless Services AuthorityDepartment of Veterans Affairs</t>
+        </is>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -7853,6 +9553,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E341" t="inlineStr">
+        <is>
+          <t>Steven ParkerWorkMerk, LLCDepartment of Veterans Affairs</t>
+        </is>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -7875,6 +9580,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E342" t="inlineStr">
+        <is>
+          <t>Latriece Prince-WheelerAscensionDepartment of Veterans Affairs</t>
+        </is>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -7897,6 +9607,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E343" t="inlineStr">
+        <is>
+          <t>Kayla WilliamsCenter for a New American SecurityDepartment of Veterans Affairs</t>
+        </is>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -7919,6 +9634,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t>Baligh YehiaAscensionDepartment of Veterans Affairs</t>
+        </is>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -7941,6 +9661,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E345" t="inlineStr">
+        <is>
+          <t>Patrice Simms, Team LeadEarthjusticeEnvironmental Protection Agency</t>
+        </is>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -7963,6 +9688,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E346" t="inlineStr">
+        <is>
+          <t>Amanda AguirreBlue Crab StrategiesEnvironmental Protection Agency</t>
+        </is>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -7985,6 +9715,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E347" t="inlineStr">
+        <is>
+          <t>Ann DunkinDell TechnologiesEnvironmental Protection Agency</t>
+        </is>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -8007,6 +9742,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E348" t="inlineStr">
+        <is>
+          <t>Matt FritzLatham &amp; Watkins, LLPEnvironmental Protection Agency</t>
+        </is>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -8029,6 +9769,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E349" t="inlineStr">
+        <is>
+          <t>Lisa GarciaGrist Magazine, Inc.Environmental Protection Agency</t>
+        </is>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -8051,6 +9796,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E350" t="inlineStr">
+        <is>
+          <t>Cynthia GilesHarvard Environmental and Energy Law ProgramEnvironmental Protection Agency</t>
+        </is>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -8073,6 +9823,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E351" t="inlineStr">
+        <is>
+          <t>Joseph GoffmanHarvard Law SchoolEnvironmental Protection Agency</t>
+        </is>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -8095,6 +9850,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E352" t="inlineStr">
+        <is>
+          <t>Ken KopocisAmerican University, Washington College of LawEnvironmental Protection Agency</t>
+        </is>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -8117,6 +9877,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E353" t="inlineStr">
+        <is>
+          <t>Michael McCabeSelf-employedEnvironmental Protection Agency</t>
+        </is>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -8139,6 +9904,11 @@
           <t>Transition — PT Fund, Inc.</t>
         </is>
       </c>
+      <c r="E354" t="inlineStr">
+        <is>
+          <t>Billie McGranePA Democratic PartyEnvironmental Protection Agency</t>
+        </is>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -8161,6 +9931,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E355" t="inlineStr">
+        <is>
+          <t>Alejandra NunezThe Sierra ClubEnvironmental Protection Agency</t>
+        </is>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -8183,6 +9958,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E356" t="inlineStr">
+        <is>
+          <t>Luseni PiehSelf-employedEnvironmental Protection Agency</t>
+        </is>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -8205,6 +9985,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E357" t="inlineStr">
+        <is>
+          <t>Cynthia Bernstein, Team LeadDeloitte Consulting, LLPExecutive Office of the President, Management and Administration</t>
+        </is>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -8227,6 +10012,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E358" t="inlineStr">
+        <is>
+          <t>Rebecca KatzGeorgetown UniversityExecutive Office of the President, Management and Administration</t>
+        </is>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -8249,6 +10039,11 @@
           <t>Transition — PT Fund, Inc.</t>
         </is>
       </c>
+      <c r="E359" t="inlineStr">
+        <is>
+          <t>Austin LinChan Zuckerberg InitiativeExecutive Office of the President, Management and Administration</t>
+        </is>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
@@ -8271,6 +10066,11 @@
           <t>Transition — PT Fund, Inc.</t>
         </is>
       </c>
+      <c r="E360" t="inlineStr">
+        <is>
+          <t>Christian PeeleSelf-employedExecutive Office of the President, Management and Administration</t>
+        </is>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
@@ -8293,6 +10093,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E361" t="inlineStr">
+        <is>
+          <t>David RecordonChan Zuckerberg InitiativeExecutive Office of the President, Management and Administration</t>
+        </is>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
@@ -8315,6 +10120,11 @@
           <t>Volunteer; Detail Agreement Pending</t>
         </is>
       </c>
+      <c r="E362" t="inlineStr">
+        <is>
+          <t>John Williams, Team LeadU.S. House of Representatives, Committee on the JudiciaryFederal Communications Commission</t>
+        </is>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
@@ -8337,6 +10147,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E363" t="inlineStr">
+        <is>
+          <t>Mignon ClyburnSelf-employedFederal Communications Commission</t>
+        </is>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
@@ -8359,6 +10174,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E364" t="inlineStr">
+        <is>
+          <t>Smitty SmithDLA Piper, LLPFederal Communications Commission</t>
+        </is>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
@@ -8381,6 +10201,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E365" t="inlineStr">
+        <is>
+          <t>Paul de SaSelf-employedFederal Communications Commission</t>
+        </is>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
@@ -8403,6 +10228,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E366" t="inlineStr">
+        <is>
+          <t>Gary Gensler, Team LeadMassachusetts Institute of TechnologyFederal Reserve, Banking and Securities Regulators</t>
+        </is>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
@@ -8425,6 +10255,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E367" t="inlineStr">
+        <is>
+          <t>Reena AggarwalGeorgetown UniversityFederal Reserve, Banking and Securities Regulators</t>
+        </is>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
@@ -8447,6 +10282,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E368" t="inlineStr">
+        <is>
+          <t>Mehrsa BaradaranUniversity of California, Irvine School of LawFederal Reserve, Banking and Securities Regulators</t>
+        </is>
+      </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
@@ -8469,6 +10309,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E369" t="inlineStr">
+        <is>
+          <t>Lisa CookMichigan State UniversityFederal Reserve, Banking and Securities Regulators</t>
+        </is>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
@@ -8491,6 +10336,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E370" t="inlineStr">
+        <is>
+          <t>Amanda FischerWashington Center for Equitable GrowthFederal Reserve, Banking and Securities Regulators</t>
+        </is>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
@@ -8513,6 +10363,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E371" t="inlineStr">
+        <is>
+          <t>Andy GreenCenter for American ProgressFederal Reserve, Banking and Securities Regulators</t>
+        </is>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
@@ -8535,6 +10390,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E372" t="inlineStr">
+        <is>
+          <t>Adrienne HarrisUniversity of MichiganFederal Reserve, Banking and Securities Regulators</t>
+        </is>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
@@ -8557,6 +10417,11 @@
           <t>Transition — PT Fund, Inc.</t>
         </is>
       </c>
+      <c r="E373" t="inlineStr">
+        <is>
+          <t>Campbell HaynesVirginia Coordinated CampaignFederal Reserve, Banking and Securities Regulators</t>
+        </is>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
@@ -8579,6 +10444,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E374" t="inlineStr">
+        <is>
+          <t>Simon JohnsonMassachusetts Institute of TechnologyFederal Reserve, Banking and Securities Regulators</t>
+        </is>
+      </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
@@ -8601,6 +10471,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E375" t="inlineStr">
+        <is>
+          <t>Dennis KelleherBetter Markets, Inc.Federal Reserve, Banking and Securities Regulators</t>
+        </is>
+      </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
@@ -8623,6 +10498,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E376" t="inlineStr">
+        <is>
+          <t>Satyam KhannaNew York University, School of Law, Institute for Corporate Governance and FinanceFederal Reserve, Banking and Securities Regulators</t>
+        </is>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
@@ -8645,6 +10525,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E377" t="inlineStr">
+        <is>
+          <t>Renaye ManleyService Employees International UnionFederal Reserve, Banking and Securities Regulators</t>
+        </is>
+      </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
@@ -8667,6 +10552,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E378" t="inlineStr">
+        <is>
+          <t>Lev MenandColumbia UniversityFederal Reserve, Banking and Securities Regulators</t>
+        </is>
+      </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
@@ -8689,6 +10579,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E379" t="inlineStr">
+        <is>
+          <t>Damon SilversAFL-CIOFederal Reserve, Banking and Securities Regulators</t>
+        </is>
+      </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
@@ -8711,6 +10606,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E380" t="inlineStr">
+        <is>
+          <t>Victoria Suarez-PalomoOrrick, Herrington &amp; Sutcliffe, LLPFederal Reserve, Banking and Securities Regulators</t>
+        </is>
+      </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
@@ -8733,6 +10633,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E381" t="inlineStr">
+        <is>
+          <t>Heather Hippsley, Team LeadFederal Trade Commission (Retired)Federal Trade Commission</t>
+        </is>
+      </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
@@ -8755,6 +10660,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E382" t="inlineStr">
+        <is>
+          <t>Bill BaerBrookings InstitutionFederal Trade Commission</t>
+        </is>
+      </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
@@ -8777,6 +10687,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E383" t="inlineStr">
+        <is>
+          <t>Laura MoyGeorgetown UniversityFederal Trade Commission</t>
+        </is>
+      </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
@@ -8799,6 +10714,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E384" t="inlineStr">
+        <is>
+          <t>Katy Kale, Team LeadElevate, LLCGeneral Services Administration</t>
+        </is>
+      </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
@@ -8821,6 +10741,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E385" t="inlineStr">
+        <is>
+          <t>Nate DennyState of North Carolina, Department of Information TechnologyGeneral Services Administration</t>
+        </is>
+      </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
@@ -8843,6 +10768,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E386" t="inlineStr">
+        <is>
+          <t>Zoe GarmendiaDemocratic National Convention CommitteeGeneral Services Administration</t>
+        </is>
+      </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
@@ -8865,6 +10795,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E387" t="inlineStr">
+        <is>
+          <t>Michael HornsbySalesforce.com, Inc.General Services Administration</t>
+        </is>
+      </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
@@ -8887,6 +10822,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E388" t="inlineStr">
+        <is>
+          <t>Gianelle RiveraExecutive Office of Mayor Muriel Bowser, District of Columbia GovernmentGeneral Services Administration</t>
+        </is>
+      </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
@@ -8909,6 +10849,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E389" t="inlineStr">
+        <is>
+          <t>Josh SawislakClio Strategies, LLCGeneral Services Administration</t>
+        </is>
+      </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
@@ -8931,6 +10876,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E390" t="inlineStr">
+        <is>
+          <t>Stephanie O’Sullivan, Team LeadSelf-employedIntelligence Community</t>
+        </is>
+      </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
@@ -8953,6 +10903,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E391" t="inlineStr">
+        <is>
+          <t>Vince Stewart, Team LeadAnkura ConsultingIntelligence Community</t>
+        </is>
+      </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
@@ -8975,6 +10930,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E392" t="inlineStr">
+        <is>
+          <t>Spencer BoyerNew York University, School of Law, Brennan Center for JusticeIntelligence Community</t>
+        </is>
+      </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
@@ -8997,6 +10957,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E393" t="inlineStr">
+        <is>
+          <t>Harry CokerSelf-employedIntelligence Community</t>
+        </is>
+      </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
@@ -9019,6 +10984,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E394" t="inlineStr">
+        <is>
+          <t>Dawn EilenbergerSelf-employedIntelligence Community</t>
+        </is>
+      </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
@@ -9041,6 +11011,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E395" t="inlineStr">
+        <is>
+          <t>Natalie Evans HarrisBrighthiveIntelligence Community</t>
+        </is>
+      </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
@@ -9063,6 +11038,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E396" t="inlineStr">
+        <is>
+          <t>Melvin GambleGamble Advisory GroupIntelligence Community</t>
+        </is>
+      </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
@@ -9085,6 +11065,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E397" t="inlineStr">
+        <is>
+          <t>Karen GibsonSelf-employedIntelligence Community</t>
+        </is>
+      </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
@@ -9107,6 +11092,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E398" t="inlineStr">
+        <is>
+          <t>Allison HallHuntington Ingalls IndustriesIntelligence Community</t>
+        </is>
+      </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
@@ -9129,6 +11119,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E399" t="inlineStr">
+        <is>
+          <t>Milancy HarrisOversight Board AdministrationIntelligence Community</t>
+        </is>
+      </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
@@ -9151,6 +11146,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E400" t="inlineStr">
+        <is>
+          <t>Justin JacksonSelf-employedIntelligence Community</t>
+        </is>
+      </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
@@ -9173,6 +11173,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E401" t="inlineStr">
+        <is>
+          <t>Chris KojmGeorge Washington UniversityIntelligence Community</t>
+        </is>
+      </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
@@ -9195,6 +11200,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E402" t="inlineStr">
+        <is>
+          <t>Bob LittMorrison &amp; Foerster LLCIntelligence Community</t>
+        </is>
+      </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
@@ -9217,6 +11227,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E403" t="inlineStr">
+        <is>
+          <t>Kathy McGrathCentral Intelligence Agency (Retired)Intelligence Community</t>
+        </is>
+      </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
@@ -9239,6 +11254,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E404" t="inlineStr">
+        <is>
+          <t>Carmen MiddletonThe Walt Disney CompanyIntelligence Community</t>
+        </is>
+      </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
@@ -9261,6 +11281,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E405" t="inlineStr">
+        <is>
+          <t>Ron MoultrieSelf-employedIntelligence Community</t>
+        </is>
+      </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
@@ -9283,6 +11308,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E406" t="inlineStr">
+        <is>
+          <t>Shaun MurphySelf-employedIntelligence Community</t>
+        </is>
+      </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
@@ -9305,6 +11335,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E407" t="inlineStr">
+        <is>
+          <t>Matt OlsenUber Technologies, Inc.Intelligence Community</t>
+        </is>
+      </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
@@ -9327,6 +11362,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E408" t="inlineStr">
+        <is>
+          <t>Jung PakBrookings InstitutionIntelligence Community</t>
+        </is>
+      </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
@@ -9349,6 +11389,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E409" t="inlineStr">
+        <is>
+          <t>Bruce PeaseSelf-employedIntelligence Community</t>
+        </is>
+      </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
@@ -9371,6 +11416,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E410" t="inlineStr">
+        <is>
+          <t>Sean RocheHelena FoundationIntelligence Community</t>
+        </is>
+      </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
@@ -9393,6 +11443,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E411" t="inlineStr">
+        <is>
+          <t>Karen SchaeferCentral Intelligence Agency (Retired)Intelligence Community</t>
+        </is>
+      </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
@@ -9415,6 +11470,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E412" t="inlineStr">
+        <is>
+          <t>Eric Velez-VillarVelez Security Solutions, LLCIntelligence Community</t>
+        </is>
+      </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
@@ -9437,6 +11497,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E413" t="inlineStr">
+        <is>
+          <t>Greg VogleMcChrystal GroupIntelligence Community</t>
+        </is>
+      </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
@@ -9459,6 +11524,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E414" t="inlineStr">
+        <is>
+          <t>Linda Etim, Team LeadBill &amp; Melinda Gates FoundationInternational Development</t>
+        </is>
+      </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
@@ -9481,6 +11551,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E415" t="inlineStr">
+        <is>
+          <t>Elizabeth Littlefield, Team LeadAlbright Stonebridge GroupInternational Development</t>
+        </is>
+      </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
@@ -9503,6 +11578,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E416" t="inlineStr">
+        <is>
+          <t>Cameron AlfordU.S. BankInternational Development</t>
+        </is>
+      </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
@@ -9525,6 +11605,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E417" t="inlineStr">
+        <is>
+          <t>Ashley AllenOatlyInternational Development</t>
+        </is>
+      </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
@@ -9547,6 +11632,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E418" t="inlineStr">
+        <is>
+          <t>Bama AthreyaLaudes FoundationInternational Development</t>
+        </is>
+      </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
@@ -9569,6 +11659,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E419" t="inlineStr">
+        <is>
+          <t>Gabriela BacaWhite &amp; Case, LLPInternational Development</t>
+        </is>
+      </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
@@ -9591,6 +11686,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E420" t="inlineStr">
+        <is>
+          <t>Alex CrabtreeAmerican Civil Liberties UnionInternational Development</t>
+        </is>
+      </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
@@ -9613,6 +11713,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E421" t="inlineStr">
+        <is>
+          <t>Beth DunfordUnited States Agency for International Development (Retired)International Development</t>
+        </is>
+      </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
@@ -9635,6 +11740,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E422" t="inlineStr">
+        <is>
+          <t>Chinesom EjiasaSums 15 Holdings, LLCInternational Development</t>
+        </is>
+      </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
@@ -9657,6 +11767,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E423" t="inlineStr">
+        <is>
+          <t>Dina EspositoMercy CorpsInternational Development</t>
+        </is>
+      </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
@@ -9679,6 +11794,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E424" t="inlineStr">
+        <is>
+          <t>Kate GageThe Movement CooperativeInternational Development</t>
+        </is>
+      </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
@@ -9701,6 +11821,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E425" t="inlineStr">
+        <is>
+          <t>Tara GueligThe Lightsmith GroupInternational Development</t>
+        </is>
+      </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
@@ -9723,6 +11848,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E426" t="inlineStr">
+        <is>
+          <t>Charles HolmesGeorgetown UniversityInternational Development</t>
+        </is>
+      </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
@@ -9745,6 +11875,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E427" t="inlineStr">
+        <is>
+          <t>Cindy HuangRefugees InternationalInternational Development</t>
+        </is>
+      </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
@@ -9767,6 +11902,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E428" t="inlineStr">
+        <is>
+          <t>Brian O’HanlonRocky Mountain InstituteInternational Development</t>
+        </is>
+      </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
@@ -9789,6 +11929,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E429" t="inlineStr">
+        <is>
+          <t>Michele SumilasBread for the WorldInternational Development</t>
+        </is>
+      </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
@@ -9811,6 +11956,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E430" t="inlineStr">
+        <is>
+          <t>Ellen Stofan, Team LeadThe Smithsonian InstitutionNational Aeronautics and Space Administration</t>
+        </is>
+      </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
@@ -9833,6 +11983,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E431" t="inlineStr">
+        <is>
+          <t>Waleed AbdalatiUniversity of Colorado BoulderNational Aeronautics and Space Administration</t>
+        </is>
+      </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
@@ -9855,6 +12010,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E432" t="inlineStr">
+        <is>
+          <t>Jedidah IslerDartmouth CollegeNational Aeronautics and Space Administration</t>
+        </is>
+      </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
@@ -9877,6 +12037,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E433" t="inlineStr">
+        <is>
+          <t>Bhavya LalIDA Science and Technology Policy InstituteNational Aeronautics and Space Administration</t>
+        </is>
+      </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
@@ -9899,6 +12064,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E434" t="inlineStr">
+        <is>
+          <t>Pam MelroySelf-employedNational Aeronautics and Space Administration</t>
+        </is>
+      </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
@@ -9921,6 +12091,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E435" t="inlineStr">
+        <is>
+          <t>Dave NobleAmerican Civil Liberties Union of MichiganNational Aeronautics and Space Administration</t>
+        </is>
+      </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
@@ -9943,6 +12118,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E436" t="inlineStr">
+        <is>
+          <t>Shannon ValleyGeorgia Institute of TechnologyNational Aeronautics and Space Administration</t>
+        </is>
+      </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
@@ -9965,6 +12145,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E437" t="inlineStr">
+        <is>
+          <t>David WeaverAir Line Pilots AssociationNational Aeronautics and Space Administration</t>
+        </is>
+      </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
@@ -9987,6 +12172,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E438" t="inlineStr">
+        <is>
+          <t>Jeff Prescott, Team LeadNational Security ActionNational Security Council</t>
+        </is>
+      </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
@@ -10009,6 +12199,11 @@
           <t>Transition — PT Fund, Inc.</t>
         </is>
       </c>
+      <c r="E439" t="inlineStr">
+        <is>
+          <t>Alexander BickJohns Hopkins University, School of Advanced International StudiesNational Security Council</t>
+        </is>
+      </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
@@ -10031,6 +12226,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E440" t="inlineStr">
+        <is>
+          <t>Maren BrooksPenFed FoundationNational Security Council</t>
+        </is>
+      </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
@@ -10053,6 +12253,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E441" t="inlineStr">
+        <is>
+          <t>Jeohn Salone FavorsWachtell, Lipton, Rosen &amp; KatzNational Security Council</t>
+        </is>
+      </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
@@ -10075,6 +12280,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E442" t="inlineStr">
+        <is>
+          <t>Christopher FonzoneSidley Austin, LLPNational Security Council</t>
+        </is>
+      </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
@@ -10097,6 +12307,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E443" t="inlineStr">
+        <is>
+          <t>Clare GallagherAirbnb, Inc.National Security Council</t>
+        </is>
+      </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
@@ -10119,6 +12334,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E444" t="inlineStr">
+        <is>
+          <t>Paula Garcia TufroUnited States Institute of PeaceNational Security Council</t>
+        </is>
+      </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
@@ -10141,6 +12361,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E445" t="inlineStr">
+        <is>
+          <t>Colin KahlStanford UniversityNational Security Council</t>
+        </is>
+      </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
@@ -10163,6 +12388,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E446" t="inlineStr">
+        <is>
+          <t>Rebecca KatzGeorgetown UniversityNational Security Council</t>
+        </is>
+      </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
@@ -10185,6 +12415,11 @@
           <t>Transition — PT Fund, Inc.</t>
         </is>
       </c>
+      <c r="E447" t="inlineStr">
+        <is>
+          <t>Austin LinChan Zuckerberg InitiativeNational Security Council</t>
+        </is>
+      </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
@@ -10207,6 +12442,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E448" t="inlineStr">
+        <is>
+          <t>Kelly MagsamenCenter for American ProgressNational Security Council</t>
+        </is>
+      </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
@@ -10229,6 +12469,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E449" t="inlineStr">
+        <is>
+          <t>Michael OrtizSequoia Capital Operations, LLCNational Security Council</t>
+        </is>
+      </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
@@ -10251,6 +12496,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E450" t="inlineStr">
+        <is>
+          <t>Dilpreet SidhuCity of Los AngelesNational Security Council</t>
+        </is>
+      </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
@@ -10273,6 +12523,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E451" t="inlineStr">
+        <is>
+          <t>Pav SinghSelf-employedNational Security Council</t>
+        </is>
+      </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
@@ -10295,6 +12550,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E452" t="inlineStr">
+        <is>
+          <t>Nicole WongSelf-employedNational Security Council</t>
+        </is>
+      </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
@@ -10317,6 +12577,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E453" t="inlineStr">
+        <is>
+          <t>Martha Coven, Team LeadPrinceton UniversityOffice of Management and Budget</t>
+        </is>
+      </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
@@ -10339,6 +12604,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E454" t="inlineStr">
+        <is>
+          <t>Brandon BelfordLyft, Inc.Office of Management and Budget</t>
+        </is>
+      </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
@@ -10361,6 +12631,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E455" t="inlineStr">
+        <is>
+          <t>Bridget DoolingGeorge Washington UniversityOffice of Management and Budget</t>
+        </is>
+      </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
@@ -10383,6 +12658,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E456" t="inlineStr">
+        <is>
+          <t>Cristina KillingsworthWestExec AdvisorsOffice of Management and Budget</t>
+        </is>
+      </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
@@ -10405,6 +12685,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E457" t="inlineStr">
+        <is>
+          <t>Divya KumaraiahAirbnb, Inc.Office of Management and Budget</t>
+        </is>
+      </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
@@ -10427,6 +12712,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E458" t="inlineStr">
+        <is>
+          <t>Elisa MontoyaMeow Wolf, Inc.Office of Management and Budget</t>
+        </is>
+      </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
@@ -10449,6 +12739,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E459" t="inlineStr">
+        <is>
+          <t>Mark SchwartzAmazon Web ServicesOffice of Management and Budget</t>
+        </is>
+      </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
@@ -10471,6 +12766,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E460" t="inlineStr">
+        <is>
+          <t>Samantha SilverbergMassachusetts Bay Transportation AuthorityOffice of Management and Budget</t>
+        </is>
+      </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
@@ -10493,6 +12793,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E461" t="inlineStr">
+        <is>
+          <t>Christen Linke YoungBrookings InstitutionOffice of Management and Budget</t>
+        </is>
+      </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
@@ -10515,6 +12820,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E462" t="inlineStr">
+        <is>
+          <t>Rahul Gupta, Team LeadMarch of DimesOffice of National Drug Control Policy</t>
+        </is>
+      </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
@@ -10537,6 +12847,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E463" t="inlineStr">
+        <is>
+          <t>Regina LaBelleGeorgetown UniversityOffice of National Drug Control Policy</t>
+        </is>
+      </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
@@ -10559,6 +12874,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E464" t="inlineStr">
+        <is>
+          <t>Kim LearyUrban InstituteOffice of National Drug Control Policy</t>
+        </is>
+      </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
@@ -10581,6 +12901,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E465" t="inlineStr">
+        <is>
+          <t>Mario MorenoWashington Office on Latin AmericaOffice of National Drug Control Policy</t>
+        </is>
+      </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
@@ -10603,6 +12928,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E466" t="inlineStr">
+        <is>
+          <t>Dave NobleAmerican Civil Liberties Union of MichiganOffice of National Drug Control Policy</t>
+        </is>
+      </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
@@ -10625,6 +12955,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E467" t="inlineStr">
+        <is>
+          <t>Kimberly O’ConnorThe Levy Group, Inc.Office of National Drug Control Policy</t>
+        </is>
+      </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
@@ -10647,6 +12982,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E468" t="inlineStr">
+        <is>
+          <t>Kiran Ahuja, Team LeadPhilanthropy NorthwestOffice of Personnel Management</t>
+        </is>
+      </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
@@ -10669,6 +13009,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E469" t="inlineStr">
+        <is>
+          <t>Rita AguilarCollege Promise CampaignOffice of Personnel Management</t>
+        </is>
+      </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
@@ -10691,6 +13036,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E470" t="inlineStr">
+        <is>
+          <t>Chris CanningDKC Public RelationsOffice of Personnel Management</t>
+        </is>
+      </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
@@ -10713,6 +13063,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E471" t="inlineStr">
+        <is>
+          <t>Theodora ChangPartnership for Public ServiceOffice of Personnel Management</t>
+        </is>
+      </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
@@ -10735,6 +13090,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E472" t="inlineStr">
+        <is>
+          <t>Matt CollierPrudential PLCOffice of Personnel Management</t>
+        </is>
+      </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
@@ -10757,6 +13117,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E473" t="inlineStr">
+        <is>
+          <t>Melody GonzalesNational Education AssociationOffice of Personnel Management</t>
+        </is>
+      </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
@@ -10779,6 +13144,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E474" t="inlineStr">
+        <is>
+          <t>Anne HarkavyDemocracy Forward FoundationOffice of Personnel Management</t>
+        </is>
+      </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
@@ -10801,6 +13171,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E475" t="inlineStr">
+        <is>
+          <t>Jane Lee1560, LLCOffice of Personnel Management</t>
+        </is>
+      </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
@@ -10823,6 +13198,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E476" t="inlineStr">
+        <is>
+          <t>David MarshMarkle FoundationOffice of Personnel Management</t>
+        </is>
+      </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
@@ -10845,6 +13225,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E477" t="inlineStr">
+        <is>
+          <t>Andrew StannerCovington &amp; Burling LLPOffice of Personnel Management</t>
+        </is>
+      </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
@@ -10867,6 +13252,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E478" t="inlineStr">
+        <is>
+          <t>Cristin Dorgelo, Team LeadAssociation of Science and Technology CentersOffice of Science and Technology Policy</t>
+        </is>
+      </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
@@ -10889,6 +13279,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E479" t="inlineStr">
+        <is>
+          <t>Andrew HebbelerNuclear Threat InitiativeOffice of Science and Technology Policy</t>
+        </is>
+      </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
@@ -10911,6 +13306,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E480" t="inlineStr">
+        <is>
+          <t>Kei KoizumiThe American Association for the Advancement of ScienceOffice of Science and Technology Policy</t>
+        </is>
+      </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
@@ -10933,6 +13333,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E481" t="inlineStr">
+        <is>
+          <t>Mahlet MesfinUniversity of PennsylvaniaOffice of Science and Technology Policy</t>
+        </is>
+      </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
@@ -10955,6 +13360,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E482" t="inlineStr">
+        <is>
+          <t>Dave ReidmillerGulf of Maine Research InstituteOffice of Science and Technology Policy</t>
+        </is>
+      </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
@@ -10977,6 +13387,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E483" t="inlineStr">
+        <is>
+          <t>Pav SinghSelf-employedOffice of Science and Technology Policy</t>
+        </is>
+      </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
@@ -10999,6 +13414,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E484" t="inlineStr">
+        <is>
+          <t>Erin SzulmanEVgoOffice of Science and Technology Policy</t>
+        </is>
+      </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
@@ -11021,6 +13441,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E485" t="inlineStr">
+        <is>
+          <t>Nicole WongSelf-employedOffice of Science and Technology Policy</t>
+        </is>
+      </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
@@ -11043,6 +13468,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E486" t="inlineStr">
+        <is>
+          <t>Jason Miller, Team LeadSelf-employedOffice of the United States Trade Representative</t>
+        </is>
+      </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
@@ -11065,6 +13495,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E487" t="inlineStr">
+        <is>
+          <t>Kathleen ClaussenUniversity of MiamiOffice of the United States Trade Representative</t>
+        </is>
+      </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
@@ -11087,6 +13522,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E488" t="inlineStr">
+        <is>
+          <t>Ted DeanDropboxOffice of the United States Trade Representative</t>
+        </is>
+      </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
@@ -11109,6 +13549,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E489" t="inlineStr">
+        <is>
+          <t>Celeste DrakeDirectors Guild of AmericaOffice of the United States Trade Representative</t>
+        </is>
+      </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
@@ -11131,6 +13576,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E490" t="inlineStr">
+        <is>
+          <t>Michelle DuBoisValues PartnershipsOffice of the United States Trade Representative</t>
+        </is>
+      </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
@@ -11153,6 +13603,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E491" t="inlineStr">
+        <is>
+          <t>Julie GreeneAFL-CIOOffice of the United States Trade Representative</t>
+        </is>
+      </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
@@ -11175,6 +13630,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E492" t="inlineStr">
+        <is>
+          <t>Elizabeth KelleyUrban InstituteOffice of the United States Trade Representative</t>
+        </is>
+      </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
@@ -11197,6 +13657,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E493" t="inlineStr">
+        <is>
+          <t>Riley OhlsonAlliance for American ManufacturingOffice of the United States Trade Representative</t>
+        </is>
+      </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
@@ -11219,6 +13684,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E494" t="inlineStr">
+        <is>
+          <t>Patrick SchaeferState of New MexicoOffice of the United States Trade Representative</t>
+        </is>
+      </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
@@ -11241,6 +13711,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E495" t="inlineStr">
+        <is>
+          <t>Daniel SepulvedaMediaMathOffice of the United States Trade Representative</t>
+        </is>
+      </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
@@ -11263,6 +13738,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E496" t="inlineStr">
+        <is>
+          <t>Brad SetserCouncil on Foreign RelationsOffice of the United States Trade Representative</t>
+        </is>
+      </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
@@ -11285,6 +13765,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E497" t="inlineStr">
+        <is>
+          <t>Todd TuckerThe Roosevelt InstituteOffice of the United States Trade Representative</t>
+        </is>
+      </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
@@ -11307,6 +13792,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E498" t="inlineStr">
+        <is>
+          <t>Arun VenkataramanVisa, Inc.Office of the United States Trade Representative</t>
+        </is>
+      </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
@@ -11329,6 +13819,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E499" t="inlineStr">
+        <is>
+          <t>Mark WuHarvard Law SchoolOffice of the United States Trade Representative</t>
+        </is>
+      </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
@@ -11351,6 +13846,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E500" t="inlineStr">
+        <is>
+          <t>Ryan ZamarripaCenter for American ProgressOffice of the United States Trade Representative</t>
+        </is>
+      </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
@@ -11373,6 +13873,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E501" t="inlineStr">
+        <is>
+          <t>Jonathan Swain, Team LeadHarvard UniversitySmall Business Administration</t>
+        </is>
+      </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
@@ -11395,6 +13900,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E502" t="inlineStr">
+        <is>
+          <t>Xavier BriggsNew York UniversitySmall Business Administration</t>
+        </is>
+      </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
@@ -11417,6 +13927,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E503" t="inlineStr">
+        <is>
+          <t>Cassius F. Butts1st Choice Credit UnionSmall Business Administration</t>
+        </is>
+      </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
@@ -11439,6 +13954,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E504" t="inlineStr">
+        <is>
+          <t>Liyan David ChangDevoted HealthSmall Business Administration</t>
+        </is>
+      </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
@@ -11461,6 +13981,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E505" t="inlineStr">
+        <is>
+          <t>Michele ChangMarkle FoundationSmall Business Administration</t>
+        </is>
+      </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
@@ -11483,6 +14008,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E506" t="inlineStr">
+        <is>
+          <t>Michael ChodosMedsphere Systems CorporationSmall Business Administration</t>
+        </is>
+      </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
@@ -11505,6 +14035,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E507" t="inlineStr">
+        <is>
+          <t>Isabel GuzmanState of California, Governor’s Office of Business &amp; Economic DevelopmentSmall Business Administration</t>
+        </is>
+      </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
@@ -11527,6 +14062,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E508" t="inlineStr">
+        <is>
+          <t>Bibi HidalgoFuture Partners LLCSmall Business Administration</t>
+        </is>
+      </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
@@ -11549,6 +14089,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E509" t="inlineStr">
+        <is>
+          <t>Chris JamesThe National Center for American Indian Enterprise DevelopmentSmall Business Administration</t>
+        </is>
+      </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
@@ -11571,6 +14116,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E510" t="inlineStr">
+        <is>
+          <t>Clifton KelloggC-PACE AllianceSmall Business Administration</t>
+        </is>
+      </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
@@ -11593,6 +14143,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E511" t="inlineStr">
+        <is>
+          <t>Ellen KimRoti Modern MediterraneanSmall Business Administration</t>
+        </is>
+      </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
@@ -11615,6 +14170,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E512" t="inlineStr">
+        <is>
+          <t>Arthur PlewsStripeSmall Business Administration</t>
+        </is>
+      </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
@@ -11637,6 +14197,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E513" t="inlineStr">
+        <is>
+          <t>Michael RothNext StreetSmall Business Administration</t>
+        </is>
+      </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
@@ -11659,6 +14224,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E514" t="inlineStr">
+        <is>
+          <t>Meredith ShafferPublic Private StrategiesSmall Business Administration</t>
+        </is>
+      </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
@@ -11681,6 +14251,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E515" t="inlineStr">
+        <is>
+          <t>Jorge Silva-PurasUniversidad del Sagrado Corazón in San JuanSmall Business Administration</t>
+        </is>
+      </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
@@ -11703,6 +14278,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E516" t="inlineStr">
+        <is>
+          <t>Jeff ZuttahOscar HealthSmall Business Administration</t>
+        </is>
+      </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
@@ -11725,6 +14305,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E517" t="inlineStr">
+        <is>
+          <t>Carolyn Colvin, Team LeadSelf-employedSocial Security Administration</t>
+        </is>
+      </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
@@ -11747,6 +14332,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E518" t="inlineStr">
+        <is>
+          <t>Scott FreyAmerican Federation of State, County and Municipal EmployeesSocial Security Administration</t>
+        </is>
+      </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
@@ -11769,6 +14359,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E519" t="inlineStr">
+        <is>
+          <t>David HolmesRebellion DefenseSocial Security Administration</t>
+        </is>
+      </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
@@ -11791,6 +14386,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E520" t="inlineStr">
+        <is>
+          <t>Jack SmalliganUrban InstituteSocial Security Administration</t>
+        </is>
+      </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
@@ -11813,6 +14413,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E521" t="inlineStr">
+        <is>
+          <t>Richard Stengel, Team LeadSelf-employedUnited States Agency for Global Media</t>
+        </is>
+      </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
@@ -11835,6 +14440,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E522" t="inlineStr">
+        <is>
+          <t>Rumana AhmedNational Democratic InstituteUnited States Agency for Global Media</t>
+        </is>
+      </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
@@ -11857,6 +14467,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E523" t="inlineStr">
+        <is>
+          <t>Brian ConniffMiddle East Broadcasting Networks (Retired)United States Agency for Global Media</t>
+        </is>
+      </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
@@ -11879,6 +14494,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E524" t="inlineStr">
+        <is>
+          <t>Raina GardinerJuggernaut, LLCUnited States Agency for Global Media</t>
+        </is>
+      </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
@@ -11901,6 +14521,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E525" t="inlineStr">
+        <is>
+          <t>Bruce ShermanSelf-employedUnited States Agency for Global Media</t>
+        </is>
+      </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
@@ -11923,6 +14548,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E526" t="inlineStr">
+        <is>
+          <t>Dana Shell SmithSelf-employedUnited States Agency for Global Media</t>
+        </is>
+      </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
@@ -11945,6 +14575,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E527" t="inlineStr">
+        <is>
+          <t>Margaret TaylorBrookings InstitutionUnited States Agency for Global Media</t>
+        </is>
+      </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
@@ -11967,6 +14602,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E528" t="inlineStr">
+        <is>
+          <t>Robert Bonnie, Team LeadDuke University, Bipartisan Policy CenterUnited States Department of Agriculture</t>
+        </is>
+      </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
@@ -11989,6 +14629,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E529" t="inlineStr">
+        <is>
+          <t>Nicholas AnthisUniversity of CaliforniaUnited States Department of Agriculture</t>
+        </is>
+      </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
@@ -12011,6 +14656,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E530" t="inlineStr">
+        <is>
+          <t>Sanah BaigThe Good Food InstituteUnited States Department of Agriculture</t>
+        </is>
+      </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
@@ -12033,6 +14683,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E531" t="inlineStr">
+        <is>
+          <t>Brooke BarronOffice of the Speaker, Maine State LegislatureUnited States Department of Agriculture</t>
+        </is>
+      </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
@@ -12055,6 +14710,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E532" t="inlineStr">
+        <is>
+          <t>Kumar ChandranFoodCorpsUnited States Department of Agriculture</t>
+        </is>
+      </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
@@ -12077,6 +14737,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E533" t="inlineStr">
+        <is>
+          <t>Jonathan CoppessThe University of IllinoisUnited States Department of Agriculture</t>
+        </is>
+      </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
@@ -12099,6 +14764,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E534" t="inlineStr">
+        <is>
+          <t>Andrea DelgadoUFW FoundationUnited States Department of Agriculture</t>
+        </is>
+      </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
@@ -12121,6 +14791,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E535" t="inlineStr">
+        <is>
+          <t>Debra EschmeyerArizona State UniversityUnited States Department of Agriculture</t>
+        </is>
+      </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
@@ -12143,6 +14818,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E536" t="inlineStr">
+        <is>
+          <t>Meryl HarrellSouthern Appalachian Wilderness StewardsUnited States Department of Agriculture</t>
+        </is>
+      </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
@@ -12165,6 +14845,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E537" t="inlineStr">
+        <is>
+          <t>LaQuita HoneysuckerThe United Food and Commercial Workers International UnionUnited States Department of Agriculture</t>
+        </is>
+      </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
@@ -12187,6 +14872,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E538" t="inlineStr">
+        <is>
+          <t>Bianca OdenNational Resources Defense Council, Inc.United States Department of Agriculture</t>
+        </is>
+      </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
@@ -12209,6 +14899,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E539" t="inlineStr">
+        <is>
+          <t>John PadalinoBandera Electric Cooperative, Inc.United States Department of Agriculture</t>
+        </is>
+      </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
@@ -12231,6 +14926,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E540" t="inlineStr">
+        <is>
+          <t>Gregory ParhamUnited States Department of Agriculture (Retired)United States Department of Agriculture</t>
+        </is>
+      </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
@@ -12253,6 +14953,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E541" t="inlineStr">
+        <is>
+          <t>Lisa PinoState of New York, Department of HealthUnited States Department of Agriculture</t>
+        </is>
+      </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
@@ -12275,6 +14980,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E542" t="inlineStr">
+        <is>
+          <t>Amy PitelkaBarker Pitelka PLLCUnited States Department of Agriculture</t>
+        </is>
+      </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
@@ -12297,6 +15007,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E543" t="inlineStr">
+        <is>
+          <t>Jeffrey PrietoLos Angeles Community College DistrictUnited States Department of Agriculture</t>
+        </is>
+      </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
@@ -12319,6 +15034,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E544" t="inlineStr">
+        <is>
+          <t>Audrey RoweSelf-employedUnited States Department of Agriculture</t>
+        </is>
+      </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
@@ -12341,6 +15061,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E545" t="inlineStr">
+        <is>
+          <t>Mike SchmidtUS Senate Committee on Agriculture, Nutrition and ForestryUnited States Department of Agriculture</t>
+        </is>
+      </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
@@ -12363,6 +15088,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E546" t="inlineStr">
+        <is>
+          <t>Corey ThenMoneta GroupUnited States Department of Agriculture</t>
+        </is>
+      </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
@@ -12385,6 +15115,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E547" t="inlineStr">
+        <is>
+          <t>Matt Bailey, Team LeadPEN AmericaUnited States Digital Service</t>
+        </is>
+      </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
@@ -12407,6 +15142,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E548" t="inlineStr">
+        <is>
+          <t>Andrew NacinChan Zuckerberg InitiativeUnited States Digital Service</t>
+        </is>
+      </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
@@ -12429,6 +15169,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E549" t="inlineStr">
+        <is>
+          <t>Isobel Coleman, Team LeadGiveDirectlyUnited States Mission to the United Nations</t>
+        </is>
+      </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
@@ -12451,6 +15196,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E550" t="inlineStr">
+        <is>
+          <t>Kaysie BrownUnited Nations FoundationUnited States Mission to the United Nations</t>
+        </is>
+      </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
@@ -12473,6 +15223,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E551" t="inlineStr">
+        <is>
+          <t>Bathsheba CrockerCAREUnited States Mission to the United Nations</t>
+        </is>
+      </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
@@ -12495,6 +15250,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E552" t="inlineStr">
+        <is>
+          <t>Jeff DeLaurentisGeorgetown UniversityUnited States Mission to the United Nations</t>
+        </is>
+      </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
@@ -12517,6 +15277,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E553" t="inlineStr">
+        <is>
+          <t>Mounir IbrahimTruepic, Inc.United States Mission to the United Nations</t>
+        </is>
+      </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
@@ -12539,6 +15304,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E554" t="inlineStr">
+        <is>
+          <t>Leonardo MartinezWorld Resources InstituteUnited States Mission to the United Nations</t>
+        </is>
+      </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
@@ -12561,6 +15331,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E555" t="inlineStr">
+        <is>
+          <t>Michael PanOpen Society FoundationsUnited States Mission to the United Nations</t>
+        </is>
+      </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
@@ -12583,6 +15358,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E556" t="inlineStr">
+        <is>
+          <t>Kelly RazzoukThe International Rescue CommitteeUnited States Mission to the United Nations</t>
+        </is>
+      </c>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
@@ -12605,6 +15385,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E557" t="inlineStr">
+        <is>
+          <t>Jen SimonSelf-employedUnited States Mission to the United Nations</t>
+        </is>
+      </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
@@ -12627,6 +15412,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E558" t="inlineStr">
+        <is>
+          <t>Ronald Stroman, Team LeadUnited States Postal ServiceUnited States Postal Service</t>
+        </is>
+      </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
@@ -12649,6 +15439,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E559" t="inlineStr">
+        <is>
+          <t>Xavier BriggsNew York UniversityUnited States Postal Service</t>
+        </is>
+      </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
@@ -12671,6 +15466,11 @@
           <t>Volunteer</t>
         </is>
       </c>
+      <c r="E560" t="inlineStr">
+        <is>
+          <t>Aneesh ChopraCareJourneyUnited States Postal Service</t>
+        </is>
+      </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
@@ -12691,6 +15491,11 @@
       <c r="D561" t="inlineStr">
         <is>
           <t>Volunteer</t>
+        </is>
+      </c>
+      <c r="E561" t="inlineStr">
+        <is>
+          <t>Jim SauberNational Association of Letter CarriersUnited States Postal Service</t>
         </is>
       </c>
     </row>
